--- a/data/case1/15/V2_3.xlsx
+++ b/data/case1/15/V2_3.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999035197562</v>
+        <v>0.99999998819767721</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99487177510094571</v>
+        <v>0.9936527946818593</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.97438598159508849</v>
+        <v>0.97240432223391615</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.96513727110501835</v>
+        <v>0.96259902338472525</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.95631465730559451</v>
+        <v>0.95320305584342291</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.93618095190133421</v>
+        <v>0.93041519461904976</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.93837894759716034</v>
+        <v>0.92643697945687586</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.93477660576655119</v>
+        <v>0.92196542484724231</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.93505726381552279</v>
+        <v>0.91788593917980266</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.9362931218095768</v>
+        <v>0.91473998218573793</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.93636308372867849</v>
+        <v>0.91440647202058911</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.93675313800361826</v>
+        <v>0.91402783403889387</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.93469269192460702</v>
+        <v>0.9137086751626633</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.93406318714908698</v>
+        <v>0.91424553197912117</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.93147199797075153</v>
+        <v>0.91618723104919608</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.92896569583720612</v>
+        <v>0.91912417578916061</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.92525796382191383</v>
+        <v>0.9266663702584792</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.92414907110738564</v>
+        <v>0.92695029278508445</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99248499148861269</v>
+        <v>0.98891379108809607</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.97350218723166027</v>
+        <v>0.96447946096236326</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.97210370001780566</v>
+        <v>0.9578581776809858</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.97083918755111864</v>
+        <v>0.95659367065923739</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.96735052561121282</v>
+        <v>0.96536878336650012</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.95432896650308652</v>
+        <v>0.95234713220893608</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.94787186632577147</v>
+        <v>0.94589002578555204</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.932524949810007</v>
+        <v>0.92786838632990087</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.92767766606336655</v>
+        <v>0.92456677650037777</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.90620240826247112</v>
+        <v>0.91047282748616465</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.89093028483515635</v>
+        <v>0.89520171603043464</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.88435977624734963</v>
+        <v>0.88863146616076416</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.87670600926855613</v>
+        <v>0.88097801161101097</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.87502672154922567</v>
+        <v>0.87929876697706311</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.87450672735763502</v>
+        <v>0.87877878169975832</v>
       </c>
     </row>
   </sheetData>
